--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuille2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -47,6 +48,161 @@
   </si>
   <si>
     <t xml:space="preserve">robots d’accessibilité ne peuvent pas lire le conteu de l’image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lien reseaux sociaux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aucun lien que des span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mettre un lien pour diriger vers les reseaux sociaux et augmenter le trafic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changer le span en a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accessibilité </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiche contact apparence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas jolie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plus jolie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">créer page contact ou le mettre au dessus du formulaire contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on doit avoir une page réunissant toute les infos de manière lisible et apparente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur votre site, créez une page reprenant les informations suivantes :
+- Adresse complète ;
+- Numéro de téléphone si nécessaire ;
+- Horaires si nécessaire ;
+- Une carte est un plus pour indiquer votre emplacement ;
+- Un descriptif d'accès ;
+- Un descriptif du lieu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifier les info en paragraphe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 pas de sémantique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En attribuant une signification sémantique ou « définie par programmation » à votre contenu, vous permettez son adaptation pour une représentation visuelle ou non visuelle sans perte de signification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le rendre plus grand gras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h3 avanr h2 « Création d'un site internet pour un voyageur »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lang : fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les lecteurs d'écran doivent savoir quelle langue ils lisent afin de pouvoir la prononcer correctement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt sous forme de img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mot clé au h1 et h2 et multiplier h2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">img trp grandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si une image est censée être de petite taille sur le site, il ne faut absolument pas y insérer une grande image et laisser le code faire l'adaptation de taille. En effet, plus l'image est grande, plus elle prend du temps à télécharger.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redimensionner ls img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trop peu de contenu txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liens externes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de title description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le mot clé doit être présent au début de la balise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title : 70 caractères ;
+Description : Google affiche entre 132 et 160 caractères. Il est conseillé d'en écrire un peu plus, pour que Google ait le choix de ce qu'il souhaite afficher.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt non lisible page 2 container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liens ou de textes cachés (par exemple un texte blanc sur fond blanc) au risque que Google considère la manœuvre comme une tentative malhonnête pour essayer d’influencer votre classement dans les moteurs de recherche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">changer tc en ltc white comme classe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enlever les paragra^he qui contiennent juste des keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txt parlons web design p2 hover comme link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link vides en bas de page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formulaire pas optimisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si une saisie non valide peut empêcher l'envoi, par exemple si des saisies sont requises ou si un format spécifique est exigé pour certains champs, tels que les codes postaux et les adresses e-mail, les erreurs doivent être clairement décrites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toutes les fonctions sont pas accessibles avec un clavier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOTS CLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entreprise webdesign Lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOT CLE LOCAUX ET GENERALISTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NBRE MOY RECHERCHE MENSUELLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agence webdesign lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 – 1 k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webdesigner lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 – 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entreprise webdesign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">webdesign 2021
+</t>
   </si>
 </sst>
 </file>
@@ -157,7 +313,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -171,11 +327,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -258,17 +418,19 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="A1:F21"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.30078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="21.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="27" style="0" width="11.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -315,59 +477,263 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1356,4 +1722,79 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.37"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t xml:space="preserve">Toutes les fonctions sont pas accessibles avec un clavier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajuster taille photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aucun lien valable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de sementique (header main footer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black hat suppr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metatag fb twitter head</t>
   </si>
   <si>
     <t xml:space="preserve">MOTS CLES</t>
@@ -417,11 +432,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.59"/>
@@ -734,11 +749,46 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1735,7 +1785,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.37"/>
@@ -1743,49 +1793,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t xml:space="preserve">metatag fb twitter head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color contrast </t>
+  </si>
+  <si>
+    <t xml:space="preserve">change couleur titre h1 en blanc</t>
   </si>
   <si>
     <t xml:space="preserve">MOTS CLES</t>
@@ -432,11 +438,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.59"/>
@@ -789,7 +795,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1781,11 +1797,11 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.37"/>
@@ -1793,49 +1809,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
